--- a/other-data/authorship_list.xlsx
+++ b/other-data/authorship_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Projects\IC - IBR\Lista de Autoria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gapsm\OneDrive\Outros\OneNote\bri-analysis\other-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C45D237-F2E3-4CA0-8B10-77C99B9E73F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F367B-F214-4668-9CB9-0DDF7FB55C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="1123">
   <si>
     <t>lab</t>
   </si>
@@ -1934,9 +1934,6 @@
   </si>
   <si>
     <t>http://lattes.cnpq.br/5476415718085722</t>
-  </si>
-  <si>
-    <t>MTT71, MTT13, PCR147</t>
   </si>
   <si>
     <t>0000-0003-2866-4223</t>
@@ -3831,11 +3828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X207"/>
+  <dimension ref="A1:X206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U149" sqref="U149"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3892,7 +3889,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
@@ -3918,13 +3915,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3936,7 +3933,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J2" s="1">
         <v>2011</v>
@@ -3963,7 +3960,7 @@
         <v>13</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>22</v>
@@ -3983,7 +3980,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
@@ -3995,7 +3992,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J3" s="1">
         <v>2008</v>
@@ -4042,7 +4039,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
@@ -4054,7 +4051,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J4" s="1">
         <v>2022</v>
@@ -4101,7 +4098,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>40</v>
@@ -4113,7 +4110,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J5" s="1">
         <v>2022</v>
@@ -4160,7 +4157,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>47</v>
@@ -4172,7 +4169,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J6" s="1">
         <v>2022</v>
@@ -4219,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>52</v>
@@ -4231,7 +4228,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J7" s="1">
         <v>2005</v>
@@ -4278,7 +4275,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>32</v>
@@ -4290,7 +4287,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J8" s="1">
         <v>2015</v>
@@ -4337,7 +4334,7 @@
         <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>65</v>
@@ -4349,7 +4346,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J9" s="1">
         <v>2017</v>
@@ -4396,7 +4393,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>72</v>
@@ -4408,7 +4405,7 @@
         <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J10" s="1">
         <v>2019</v>
@@ -4455,7 +4452,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>80</v>
@@ -4467,7 +4464,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J11" s="1">
         <v>2017</v>
@@ -4514,7 +4511,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>83</v>
@@ -4526,7 +4523,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J12" s="1">
         <v>2020</v>
@@ -4573,7 +4570,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>88</v>
@@ -4585,7 +4582,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J13" s="1">
         <v>2010</v>
@@ -4632,7 +4629,7 @@
         <v>94</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>95</v>
@@ -4644,7 +4641,7 @@
         <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J14" s="1">
         <v>2012</v>
@@ -4691,7 +4688,7 @@
         <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>102</v>
@@ -4703,7 +4700,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J15" s="1">
         <v>2022</v>
@@ -4750,7 +4747,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>107</v>
@@ -4762,7 +4759,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J16" s="1">
         <v>2008</v>
@@ -4809,7 +4806,7 @@
         <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>112</v>
@@ -4821,7 +4818,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J17" s="1">
         <v>2023</v>
@@ -4868,7 +4865,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>118</v>
@@ -4880,7 +4877,7 @@
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J18" s="1">
         <v>2022</v>
@@ -4927,7 +4924,7 @@
         <v>117</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>123</v>
@@ -4939,7 +4936,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J19" s="1">
         <v>2022</v>
@@ -4986,7 +4983,7 @@
         <v>117</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>127</v>
@@ -4998,7 +4995,7 @@
         <v>22</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J20" s="1">
         <v>2011</v>
@@ -5045,7 +5042,7 @@
         <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>134</v>
@@ -5057,7 +5054,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J21" s="1">
         <v>2019</v>
@@ -5104,7 +5101,7 @@
         <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>138</v>
@@ -5116,7 +5113,7 @@
         <v>22</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J22" s="1">
         <v>2002</v>
@@ -5163,7 +5160,7 @@
         <v>133</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>143</v>
@@ -5175,7 +5172,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J23" s="1">
         <v>2002</v>
@@ -5222,7 +5219,7 @@
         <v>133</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>147</v>
@@ -5234,7 +5231,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J24" s="1">
         <v>2020</v>
@@ -5281,7 +5278,7 @@
         <v>152</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>153</v>
@@ -5293,7 +5290,7 @@
         <v>22</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J25" s="1">
         <v>2022</v>
@@ -5340,7 +5337,7 @@
         <v>152</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>157</v>
@@ -5352,7 +5349,7 @@
         <v>22</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J26" s="1">
         <v>2016</v>
@@ -5399,7 +5396,7 @@
         <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>161</v>
@@ -5411,7 +5408,7 @@
         <v>22</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J27" s="1">
         <v>1995</v>
@@ -5458,7 +5455,7 @@
         <v>167</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>168</v>
@@ -5470,7 +5467,7 @@
         <v>22</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J28" s="1">
         <v>2012</v>
@@ -5508,7 +5505,7 @@
         <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>167</v>
@@ -5517,7 +5514,7 @@
         <v>167</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>171</v>
@@ -5529,7 +5526,7 @@
         <v>22</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J29" s="1">
         <v>2000</v>
@@ -5576,7 +5573,7 @@
         <v>167</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>176</v>
@@ -5588,7 +5585,7 @@
         <v>22</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J30" s="1">
         <v>2020</v>
@@ -5635,7 +5632,7 @@
         <v>182</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>183</v>
@@ -5647,7 +5644,7 @@
         <v>22</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J31" s="1">
         <v>2015</v>
@@ -5694,7 +5691,7 @@
         <v>182</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>187</v>
@@ -5706,7 +5703,7 @@
         <v>22</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J32" s="1">
         <v>2022</v>
@@ -5753,7 +5750,7 @@
         <v>182</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>191</v>
@@ -5765,7 +5762,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J33" s="1">
         <v>2023</v>
@@ -5813,7 +5810,7 @@
         <v>196</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>197</v>
@@ -5825,7 +5822,7 @@
         <v>22</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J34" s="1">
         <v>2018</v>
@@ -5872,7 +5869,7 @@
         <v>22</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>202</v>
@@ -5884,7 +5881,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J35" s="1">
         <v>2004</v>
@@ -5922,7 +5919,7 @@
         <v>194</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>196</v>
@@ -5931,7 +5928,7 @@
         <v>22</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>205</v>
@@ -5943,7 +5940,7 @@
         <v>22</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J36" s="1">
         <v>2010</v>
@@ -5990,7 +5987,7 @@
         <v>209</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>210</v>
@@ -6002,7 +5999,7 @@
         <v>22</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J37" s="1">
         <v>2021</v>
@@ -6049,7 +6046,7 @@
         <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>217</v>
@@ -6061,7 +6058,7 @@
         <v>22</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J38" s="1">
         <v>2016</v>
@@ -6108,7 +6105,7 @@
         <v>22</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>222</v>
@@ -6120,7 +6117,7 @@
         <v>22</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J39" s="1">
         <v>2014</v>
@@ -6167,7 +6164,7 @@
         <v>209</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>227</v>
@@ -6179,7 +6176,7 @@
         <v>22</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J40" s="1">
         <v>2021</v>
@@ -6226,7 +6223,7 @@
         <v>230</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>231</v>
@@ -6238,7 +6235,7 @@
         <v>22</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J41" s="1">
         <v>2021</v>
@@ -6285,7 +6282,7 @@
         <v>235</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>236</v>
@@ -6297,7 +6294,7 @@
         <v>22</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J42" s="1">
         <v>2018</v>
@@ -6344,7 +6341,7 @@
         <v>235</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>242</v>
@@ -6356,7 +6353,7 @@
         <v>22</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J43" s="1">
         <v>2009</v>
@@ -6403,7 +6400,7 @@
         <v>247</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>248</v>
@@ -6415,7 +6412,7 @@
         <v>22</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J44" s="1">
         <v>2014</v>
@@ -6462,7 +6459,7 @@
         <v>255</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>32</v>
@@ -6474,7 +6471,7 @@
         <v>22</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J45" s="1">
         <v>2018</v>
@@ -6521,7 +6518,7 @@
         <v>247</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>259</v>
@@ -6533,7 +6530,7 @@
         <v>22</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J46" s="1">
         <v>2022</v>
@@ -6560,7 +6557,7 @@
         <v>252</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>50</v>
@@ -6581,7 +6578,7 @@
         <v>247</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>262</v>
@@ -6593,7 +6590,7 @@
         <v>22</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J47" s="1">
         <v>2022</v>
@@ -6640,7 +6637,7 @@
         <v>266</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>267</v>
@@ -6652,7 +6649,7 @@
         <v>22</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J48" s="1">
         <v>2024</v>
@@ -6699,7 +6696,7 @@
         <v>271</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>272</v>
@@ -6711,7 +6708,7 @@
         <v>22</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J49" s="1">
         <v>2015</v>
@@ -6758,7 +6755,7 @@
         <v>276</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>277</v>
@@ -6770,7 +6767,7 @@
         <v>22</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J50" s="1">
         <v>2021</v>
@@ -6808,7 +6805,7 @@
         <v>279</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>280</v>
@@ -6817,7 +6814,7 @@
         <v>280</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>281</v>
@@ -6829,7 +6826,7 @@
         <v>22</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J51" s="1">
         <v>2021</v>
@@ -6876,7 +6873,7 @@
         <v>287</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>288</v>
@@ -6888,7 +6885,7 @@
         <v>22</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J52" s="1">
         <v>2017</v>
@@ -6935,7 +6932,7 @@
         <v>280</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>291</v>
@@ -6947,7 +6944,7 @@
         <v>22</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J53" s="1">
         <v>2000</v>
@@ -6994,7 +6991,7 @@
         <v>280</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>296</v>
@@ -7006,7 +7003,7 @@
         <v>22</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J54" s="1">
         <v>2020</v>
@@ -7047,13 +7044,13 @@
         <v>301</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>302</v>
@@ -7065,7 +7062,7 @@
         <v>22</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J55" s="1">
         <v>2022</v>
@@ -7109,10 +7106,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>32</v>
@@ -7124,7 +7121,7 @@
         <v>22</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J56" s="1">
         <v>2023</v>
@@ -7165,13 +7162,13 @@
         <v>309</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>310</v>
@@ -7183,7 +7180,7 @@
         <v>22</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J57" s="1">
         <v>1999</v>
@@ -7221,28 +7218,28 @@
         <v>300</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>1026</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="11" t="s">
         <v>1027</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>1028</v>
-      </c>
       <c r="H58" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J58" s="3">
         <v>2020</v>
@@ -7269,7 +7266,7 @@
         <v>8</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="S58" s="4" t="s">
         <v>50</v>
@@ -7294,7 +7291,7 @@
         <v>316</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>317</v>
@@ -7306,7 +7303,7 @@
         <v>22</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J59" s="1">
         <v>2018</v>
@@ -7353,7 +7350,7 @@
         <v>316</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>323</v>
@@ -7365,7 +7362,7 @@
         <v>22</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J60" s="1">
         <v>2018</v>
@@ -7412,7 +7409,7 @@
         <v>316</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>327</v>
@@ -7424,7 +7421,7 @@
         <v>22</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J61" s="1">
         <v>2023</v>
@@ -7471,7 +7468,7 @@
         <v>316</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>331</v>
@@ -7483,7 +7480,7 @@
         <v>22</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J62" s="1">
         <v>2004</v>
@@ -7530,7 +7527,7 @@
         <v>337</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>338</v>
@@ -7542,7 +7539,7 @@
         <v>22</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J63" s="1">
         <v>2022</v>
@@ -7589,7 +7586,7 @@
         <v>342</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>343</v>
@@ -7601,7 +7598,7 @@
         <v>22</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J64" s="1">
         <v>2016</v>
@@ -7648,7 +7645,7 @@
         <v>351</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>352</v>
@@ -7660,7 +7657,7 @@
         <v>22</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J65" s="1">
         <v>2005</v>
@@ -7707,7 +7704,7 @@
         <v>358</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>359</v>
@@ -7719,7 +7716,7 @@
         <v>22</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J66" s="1">
         <v>2009</v>
@@ -7766,7 +7763,7 @@
         <v>363</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>364</v>
@@ -7778,7 +7775,7 @@
         <v>22</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J67" s="1">
         <v>2019</v>
@@ -7825,7 +7822,7 @@
         <v>367</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>368</v>
@@ -7837,7 +7834,7 @@
         <v>22</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J68" s="1">
         <v>2016</v>
@@ -7884,7 +7881,7 @@
         <v>372</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>373</v>
@@ -7896,7 +7893,7 @@
         <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J69" s="1">
         <v>2016</v>
@@ -7943,7 +7940,7 @@
         <v>376</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>377</v>
@@ -7955,7 +7952,7 @@
         <v>22</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J70" s="1">
         <v>2022</v>
@@ -8002,7 +7999,7 @@
         <v>381</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>382</v>
@@ -8014,7 +8011,7 @@
         <v>22</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J71" s="1">
         <v>2018</v>
@@ -8061,7 +8058,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>32</v>
@@ -8073,7 +8070,7 @@
         <v>22</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J72" s="1">
         <v>2021</v>
@@ -8120,7 +8117,7 @@
         <v>381</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>388</v>
@@ -8132,7 +8129,7 @@
         <v>22</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J73" s="1">
         <v>2004</v>
@@ -8179,7 +8176,7 @@
         <v>394</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>395</v>
@@ -8191,7 +8188,7 @@
         <v>22</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J74" s="1">
         <v>2012</v>
@@ -8238,7 +8235,7 @@
         <v>393</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>400</v>
@@ -8247,7 +8244,7 @@
         <v>406</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J75" s="1">
         <v>2010</v>
@@ -8294,19 +8291,19 @@
         <v>404</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>405</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J76" s="1">
         <v>2018</v>
@@ -8333,7 +8330,7 @@
         <v>32</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>50</v>
@@ -8353,7 +8350,7 @@
         <v>230</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>408</v>
@@ -8365,7 +8362,7 @@
         <v>22</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J77" s="1">
         <v>2014</v>
@@ -8412,7 +8409,7 @@
         <v>22</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>412</v>
@@ -8424,7 +8421,7 @@
         <v>22</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J78" s="1">
         <v>2007</v>
@@ -8471,7 +8468,7 @@
         <v>22</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>416</v>
@@ -8483,7 +8480,7 @@
         <v>22</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J79" s="1">
         <v>1997</v>
@@ -8521,7 +8518,7 @@
         <v>419</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>420</v>
@@ -8530,7 +8527,7 @@
         <v>22</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>421</v>
@@ -8542,7 +8539,7 @@
         <v>22</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J80" s="1">
         <v>2007</v>
@@ -8589,7 +8586,7 @@
         <v>420</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>426</v>
@@ -8601,7 +8598,7 @@
         <v>22</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J81" s="1">
         <v>2022</v>
@@ -8648,7 +8645,7 @@
         <v>420</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>430</v>
@@ -8660,7 +8657,7 @@
         <v>22</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J82" s="1">
         <v>1983</v>
@@ -8707,7 +8704,7 @@
         <v>436</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>437</v>
@@ -8719,7 +8716,7 @@
         <v>22</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J83" s="1">
         <v>2008</v>
@@ -8746,7 +8743,7 @@
         <v>62</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>50</v>
@@ -8766,7 +8763,7 @@
         <v>22</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>440</v>
@@ -8778,7 +8775,7 @@
         <v>22</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J84" s="1">
         <v>2006</v>
@@ -8816,7 +8813,7 @@
         <v>434</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>436</v>
@@ -8825,7 +8822,7 @@
         <v>22</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>443</v>
@@ -8837,7 +8834,7 @@
         <v>22</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J85" s="1">
         <v>2022</v>
@@ -8884,7 +8881,7 @@
         <v>22</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>447</v>
@@ -8896,7 +8893,7 @@
         <v>22</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J86" s="1">
         <v>2008</v>
@@ -8943,7 +8940,7 @@
         <v>453</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>454</v>
@@ -8955,7 +8952,7 @@
         <v>22</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J87" s="1">
         <v>2023</v>
@@ -9002,7 +8999,7 @@
         <v>22</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>458</v>
@@ -9014,7 +9011,7 @@
         <v>22</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J88" s="1">
         <v>2008</v>
@@ -9061,7 +9058,7 @@
         <v>453</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>462</v>
@@ -9073,7 +9070,7 @@
         <v>22</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J89" s="1">
         <v>2020</v>
@@ -9100,7 +9097,7 @@
         <v>77</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>50</v>
@@ -9120,7 +9117,7 @@
         <v>453</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>465</v>
@@ -9132,7 +9129,7 @@
         <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J90" s="1">
         <v>2023</v>
@@ -9179,7 +9176,7 @@
         <v>71</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>469</v>
@@ -9191,7 +9188,7 @@
         <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J91" s="1">
         <v>2022</v>
@@ -9238,7 +9235,7 @@
         <v>474</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>475</v>
@@ -9250,7 +9247,7 @@
         <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J92" s="1">
         <v>1996</v>
@@ -9297,7 +9294,7 @@
         <v>22</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>32</v>
@@ -9309,7 +9306,7 @@
         <v>22</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J93" s="1">
         <v>2017</v>
@@ -9356,7 +9353,7 @@
         <v>474</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>486</v>
@@ -9368,7 +9365,7 @@
         <v>22</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J94" s="1">
         <v>2016</v>
@@ -9415,7 +9412,7 @@
         <v>474</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>490</v>
@@ -9427,7 +9424,7 @@
         <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J95" s="1">
         <v>2019</v>
@@ -9474,7 +9471,7 @@
         <v>496</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>497</v>
@@ -9486,7 +9483,7 @@
         <v>22</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J96" s="1">
         <v>2012</v>
@@ -9533,7 +9530,7 @@
         <v>503</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>504</v>
@@ -9545,7 +9542,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J97" s="1">
         <v>2023</v>
@@ -9592,7 +9589,7 @@
         <v>496</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>509</v>
@@ -9604,7 +9601,7 @@
         <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J98" s="1">
         <v>2023</v>
@@ -9651,7 +9648,7 @@
         <v>22</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>515</v>
@@ -9663,7 +9660,7 @@
         <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J99" s="1">
         <v>2013</v>
@@ -9710,7 +9707,7 @@
         <v>287</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>522</v>
@@ -9722,7 +9719,7 @@
         <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J100" s="1">
         <v>2019</v>
@@ -9769,7 +9766,7 @@
         <v>514</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>526</v>
@@ -9781,7 +9778,7 @@
         <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J101" s="1">
         <v>2023</v>
@@ -9828,7 +9825,7 @@
         <v>22</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>530</v>
@@ -9840,7 +9837,7 @@
         <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J102" s="1">
         <v>2015</v>
@@ -9887,7 +9884,7 @@
         <v>22</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>534</v>
@@ -9899,7 +9896,7 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J103" s="1">
         <v>2021</v>
@@ -9946,7 +9943,7 @@
         <v>539</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>540</v>
@@ -9958,7 +9955,7 @@
         <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J104" s="1">
         <v>2017</v>
@@ -10005,7 +10002,7 @@
         <v>545</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>546</v>
@@ -10017,7 +10014,7 @@
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J105" s="1">
         <v>2022</v>
@@ -10064,7 +10061,7 @@
         <v>551</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>552</v>
@@ -10076,7 +10073,7 @@
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J106" s="1">
         <v>2022</v>
@@ -10123,7 +10120,7 @@
         <v>558</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>559</v>
@@ -10135,7 +10132,7 @@
         <v>22</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J107" s="1">
         <v>2018</v>
@@ -10182,7 +10179,7 @@
         <v>271</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>563</v>
@@ -10194,7 +10191,7 @@
         <v>22</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J108" s="1">
         <v>2022</v>
@@ -10241,7 +10238,7 @@
         <v>568</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>569</v>
@@ -10253,7 +10250,7 @@
         <v>22</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J109" s="1">
         <v>2016</v>
@@ -10300,7 +10297,7 @@
         <v>573</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>574</v>
@@ -10312,7 +10309,7 @@
         <v>22</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J110" s="1">
         <v>1988</v>
@@ -10359,7 +10356,7 @@
         <v>22</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>578</v>
@@ -10371,7 +10368,7 @@
         <v>22</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J111" s="1">
         <v>2014</v>
@@ -10418,7 +10415,7 @@
         <v>583</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>584</v>
@@ -10430,7 +10427,7 @@
         <v>22</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J112" s="1">
         <v>2015</v>
@@ -10477,7 +10474,7 @@
         <v>22</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>590</v>
@@ -10489,7 +10486,7 @@
         <v>22</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J113" s="1">
         <v>1992</v>
@@ -10536,7 +10533,7 @@
         <v>583</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>597</v>
@@ -10548,7 +10545,7 @@
         <v>22</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J114" s="1">
         <v>2006</v>
@@ -10595,7 +10592,7 @@
         <v>583</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>601</v>
@@ -10607,7 +10604,7 @@
         <v>22</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J115" s="1">
         <v>2017</v>
@@ -10654,7 +10651,7 @@
         <v>606</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
@@ -10666,7 +10663,7 @@
         <v>22</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J116" s="1">
         <v>2017</v>
@@ -10713,7 +10710,7 @@
         <v>606</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>610</v>
@@ -10725,7 +10722,7 @@
         <v>22</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J117" s="1">
         <v>2016</v>
@@ -10772,7 +10769,7 @@
         <v>22</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>614</v>
@@ -10784,7 +10781,7 @@
         <v>22</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J118" s="1">
         <v>2000</v>
@@ -10831,7 +10828,7 @@
         <v>620</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>621</v>
@@ -10843,7 +10840,7 @@
         <v>22</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J119" s="1">
         <v>2014</v>
@@ -10890,7 +10887,7 @@
         <v>22</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>626</v>
@@ -10902,7 +10899,7 @@
         <v>22</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J120" s="1">
         <v>1993</v>
@@ -10949,7 +10946,7 @@
         <v>620</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>631</v>
@@ -10961,7 +10958,7 @@
         <v>22</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J121" s="1">
         <v>2013</v>
@@ -11008,7 +11005,7 @@
         <v>636</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>32</v>
@@ -11020,7 +11017,7 @@
         <v>22</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J122" s="1">
         <v>2023</v>
@@ -11058,43 +11055,43 @@
         <v>634</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>133</v>
+        <v>636</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>133</v>
+        <v>636</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>134</v>
+        <v>638</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J123" s="1">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="K123" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="L123" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M123" s="1">
-        <v>103</v>
+        <v>1280</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="O123" s="1" t="s">
         <v>61</v>
@@ -11106,33 +11103,33 @@
         <v>62</v>
       </c>
       <c r="R123" s="1" t="s">
-        <v>136</v>
+        <v>639</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>137</v>
+        <v>641</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>139</v>
+        <v>644</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>22</v>
@@ -11141,81 +11138,81 @@
         <v>1096</v>
       </c>
       <c r="J124" s="1">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="K124" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L124" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M124" s="1">
-        <v>1280</v>
+        <v>35</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>61</v>
+        <v>645</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="D125" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J125" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="K125" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L125" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M125" s="1">
-        <v>35</v>
+        <v>339</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P125" s="1" t="s">
         <v>29</v>
@@ -11224,57 +11221,57 @@
         <v>32</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J126" s="1">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="K126" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L126" s="1">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M126" s="1">
-        <v>339</v>
+        <v>752</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>85</v>
+        <v>654</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P126" s="1" t="s">
         <v>29</v>
@@ -11283,7 +11280,7 @@
         <v>32</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>22</v>
@@ -11291,58 +11288,58 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>643</v>
+        <v>22</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J127" s="1">
-        <v>2011</v>
+        <v>1974</v>
       </c>
       <c r="K127" s="1">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L127" s="1">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="M127" s="1">
-        <v>752</v>
+        <v>5617</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="S127" s="1" t="s">
         <v>22</v>
@@ -11350,25 +11347,25 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>659</v>
+        <v>22</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>22</v>
+        <v>665</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>22</v>
@@ -11377,22 +11374,22 @@
         <v>1096</v>
       </c>
       <c r="J128" s="1">
-        <v>1974</v>
+        <v>2023</v>
       </c>
       <c r="K128" s="1">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="L128" s="1">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="M128" s="1">
-        <v>5617</v>
+        <v>25</v>
       </c>
       <c r="N128" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O128" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>29</v>
@@ -11401,7 +11398,7 @@
         <v>284</v>
       </c>
       <c r="R128" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="S128" s="1" t="s">
         <v>22</v>
@@ -11409,49 +11406,49 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J129" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K129" s="1">
+        <v>16</v>
+      </c>
+      <c r="L129" s="1">
+        <v>45</v>
+      </c>
+      <c r="M129" s="1">
         <v>657</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="J129" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K129" s="1">
-        <v>2</v>
-      </c>
-      <c r="L129" s="1">
-        <v>4</v>
-      </c>
-      <c r="M129" s="1">
-        <v>25</v>
-      </c>
       <c r="N129" s="1" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P129" s="1" t="s">
         <v>29</v>
@@ -11460,7 +11457,7 @@
         <v>284</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>22</v>
@@ -11468,49 +11465,49 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>659</v>
+        <v>22</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="J130" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="K130" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L130" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M130" s="1">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P130" s="1" t="s">
         <v>29</v>
@@ -11519,42 +11516,42 @@
         <v>284</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>673</v>
+        <v>32</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J131" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K131" s="1">
         <v>0</v>
@@ -11569,7 +11566,7 @@
         <v>32</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P131" s="1" t="s">
         <v>29</v>
@@ -11586,49 +11583,49 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>22</v>
+        <v>658</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>337</v>
+        <v>22</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="J132" s="1">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="K132" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L132" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M132" s="1">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P132" s="1" t="s">
         <v>29</v>
@@ -11637,57 +11634,57 @@
         <v>284</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>32</v>
+        <v>682</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>659</v>
+        <v>22</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>22</v>
+        <v>665</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="J133" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="K133" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L133" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M133" s="1">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>29</v>
@@ -11696,116 +11693,116 @@
         <v>284</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>683</v>
+        <v>32</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>657</v>
+        <v>686</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>22</v>
+        <v>1023</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>666</v>
+        <v>22</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J134" s="1">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="K134" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L134" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M134" s="1">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>284</v>
+        <v>32</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>32</v>
+        <v>691</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="G135" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J135" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K135" s="1">
+        <v>13</v>
+      </c>
+      <c r="L135" s="1">
+        <v>39</v>
+      </c>
+      <c r="M135" s="1">
+        <v>646</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O135" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J135" s="1">
-        <v>2014</v>
-      </c>
-      <c r="K135" s="1">
-        <v>6</v>
-      </c>
-      <c r="L135" s="1">
-        <v>16</v>
-      </c>
-      <c r="M135" s="1">
-        <v>107</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>29</v>
@@ -11814,7 +11811,7 @@
         <v>32</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>22</v>
@@ -11822,49 +11819,49 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>1025</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J136" s="1">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="K136" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L136" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="M136" s="1">
-        <v>646</v>
+        <v>30</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>29</v>
@@ -11873,7 +11870,7 @@
         <v>32</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="S136" s="1" t="s">
         <v>22</v>
@@ -11881,49 +11878,49 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>1025</v>
-      </c>
       <c r="E137" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J137" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="K137" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L137" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M137" s="1">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>29</v>
@@ -11932,7 +11929,7 @@
         <v>32</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="S137" s="1" t="s">
         <v>22</v>
@@ -11940,49 +11937,49 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>701</v>
+        <v>1106</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1024</v>
+        <v>705</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1025</v>
+        <v>705</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J138" s="1">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="K138" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L138" s="1">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="M138" s="1">
-        <v>79</v>
+        <v>1463</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="P138" s="1" t="s">
         <v>29</v>
@@ -11991,7 +11988,7 @@
         <v>32</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="S138" s="1" t="s">
         <v>22</v>
@@ -11999,49 +11996,49 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="D139" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="G139" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J139" s="1">
+        <v>2020</v>
+      </c>
+      <c r="K139" s="1">
+        <v>12</v>
+      </c>
+      <c r="L139" s="1">
+        <v>20</v>
+      </c>
+      <c r="M139" s="1">
+        <v>461</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O139" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J139" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K139" s="1">
-        <v>24</v>
-      </c>
-      <c r="L139" s="1">
-        <v>46</v>
-      </c>
-      <c r="M139" s="1">
-        <v>1463</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="P139" s="1" t="s">
         <v>29</v>
@@ -12050,7 +12047,7 @@
         <v>32</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="S139" s="1" t="s">
         <v>22</v>
@@ -12058,25 +12055,25 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1110</v>
+        <v>1037</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>22</v>
@@ -12085,78 +12082,78 @@
         <v>1096</v>
       </c>
       <c r="J140" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="K140" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L140" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M140" s="1">
-        <v>461</v>
+        <v>10</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>709</v>
+        <v>75</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="D141" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J141" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="K141" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L141" s="1">
         <v>5</v>
       </c>
       <c r="M141" s="1">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>75</v>
@@ -12168,7 +12165,7 @@
         <v>77</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="S141" s="1" t="s">
         <v>50</v>
@@ -12176,46 +12173,46 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1108</v>
+        <v>106</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>717</v>
+        <v>22</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>721</v>
+        <v>107</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>722</v>
+        <v>108</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J142" s="1">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="K142" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="L142" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M142" s="1">
-        <v>44</v>
+        <v>1786</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>75</v>
@@ -12227,54 +12224,54 @@
         <v>77</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>723</v>
+        <v>110</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>106</v>
+        <v>723</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>22</v>
+        <v>716</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>717</v>
+        <v>22</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>107</v>
+        <v>724</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>108</v>
+        <v>725</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J143" s="1">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="K143" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L143" s="1">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="M143" s="1">
-        <v>1786</v>
+        <v>2312</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>109</v>
+        <v>726</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>75</v>
@@ -12286,7 +12283,7 @@
         <v>77</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>110</v>
+        <v>727</v>
       </c>
       <c r="S143" s="1" t="s">
         <v>22</v>
@@ -12294,143 +12291,143 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>22</v>
+        <v>730</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1038</v>
+        <v>1071</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J144" s="1">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="K144" s="1">
+        <v>1</v>
+      </c>
+      <c r="L144" s="1">
+        <v>1</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="P144" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L144" s="1">
-        <v>73</v>
-      </c>
-      <c r="M144" s="1">
-        <v>2312</v>
-      </c>
-      <c r="N144" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="O144" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P144" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="Q144" s="1" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>731</v>
-      </c>
       <c r="D145" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>732</v>
+        <v>1120</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>733</v>
+        <v>1121</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J145" s="1">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="K145" s="1">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="L145" s="1">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="M145" s="1">
-        <v>1</v>
-      </c>
-      <c r="N145" s="1" t="s">
-        <v>104</v>
+        <v>6328</v>
+      </c>
+      <c r="N145" s="1">
+        <v>1994</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q145" s="1" t="s">
-        <v>284</v>
+      <c r="Q145" s="1">
+        <v>1</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>734</v>
+        <v>1122</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1120</v>
+        <v>734</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1121</v>
+        <v>735</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1122</v>
+        <v>736</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>22</v>
@@ -12439,149 +12436,149 @@
         <v>1096</v>
       </c>
       <c r="J146" s="1">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="K146" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="L146" s="1">
-        <v>243</v>
+        <v>8</v>
       </c>
       <c r="M146" s="1">
-        <v>6328</v>
-      </c>
-      <c r="N146" s="1">
-        <v>1994</v>
+        <v>82</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P146" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q146" s="1">
-        <v>1</v>
+      <c r="Q146" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>1123</v>
+        <v>738</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J147" s="1">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="K147" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L147" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M147" s="1">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>738</v>
+        <v>85</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>284</v>
+        <v>745</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>742</v>
-      </c>
       <c r="D148" s="1" t="s">
-        <v>742</v>
+        <v>22</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="G148" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J148" s="1">
+        <v>1992</v>
+      </c>
+      <c r="K148" s="1">
+        <v>19</v>
+      </c>
+      <c r="L148" s="1">
+        <v>34</v>
+      </c>
+      <c r="M148" s="1">
+        <v>1062</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O148" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J148" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K148" s="1">
-        <v>3</v>
-      </c>
-      <c r="L148" s="1">
-        <v>4</v>
-      </c>
-      <c r="M148" s="1">
-        <v>68</v>
-      </c>
-      <c r="N148" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O148" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>518</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="S148" s="1" t="s">
         <v>22</v>
@@ -12589,176 +12586,176 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>22</v>
+        <v>741</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J149" s="1">
-        <v>1992</v>
+        <v>2014</v>
       </c>
       <c r="K149" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L149" s="1">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="M149" s="1">
-        <v>1062</v>
+        <v>83</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>616</v>
+        <v>754</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>518</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>742</v>
+        <v>22</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>1073</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J150" s="1">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="K150" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L150" s="1">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="M150" s="1">
-        <v>83</v>
+        <v>948</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>755</v>
+        <v>67</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>759</v>
-      </c>
       <c r="D151" s="1" t="s">
-        <v>22</v>
+        <v>758</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="G151" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J151" s="1">
+        <v>2009</v>
+      </c>
+      <c r="K151" s="1">
+        <v>14</v>
+      </c>
+      <c r="L151" s="1">
+        <v>77</v>
+      </c>
+      <c r="M151" s="1">
+        <v>826</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O151" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J151" s="1">
-        <v>2005</v>
-      </c>
-      <c r="K151" s="1">
-        <v>17</v>
-      </c>
-      <c r="L151" s="1">
-        <v>63</v>
-      </c>
-      <c r="M151" s="1">
-        <v>948</v>
-      </c>
-      <c r="N151" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O151" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="P151" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="S151" s="1" t="s">
         <v>22</v>
@@ -12766,58 +12763,58 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J152" s="1">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="K152" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L152" s="1">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M152" s="1">
-        <v>826</v>
+        <v>337</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>85</v>
+        <v>492</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P152" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="S152" s="1" t="s">
         <v>22</v>
@@ -12825,108 +12822,108 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>759</v>
+        <v>22</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>771</v>
+        <v>32</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>775</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J153" s="1">
         <v>2013</v>
       </c>
       <c r="K153" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L153" s="1">
+        <v>2</v>
+      </c>
+      <c r="M153" s="1">
+        <v>26</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q153" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M153" s="1">
-        <v>337</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="O153" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="P153" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q153" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="R153" s="1" t="s">
-        <v>772</v>
+      <c r="R153" s="6" t="s">
+        <v>1113</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>775</v>
-      </c>
       <c r="D154" s="1" t="s">
-        <v>22</v>
+        <v>774</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="G154" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J154" s="1">
+        <v>2022</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L154" s="1">
+        <v>0</v>
+      </c>
+      <c r="M154" s="1">
+        <v>0</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O154" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J154" s="1">
-        <v>2013</v>
-      </c>
-      <c r="K154" s="1">
-        <v>2</v>
-      </c>
-      <c r="L154" s="1">
-        <v>2</v>
-      </c>
-      <c r="M154" s="1">
-        <v>26</v>
-      </c>
-      <c r="N154" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="O154" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="P154" s="1" t="s">
         <v>29</v>
@@ -12934,93 +12931,93 @@
       <c r="Q154" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R154" s="6" t="s">
-        <v>1114</v>
+      <c r="R154" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>775</v>
+        <v>22</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="J155" s="1">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="K155" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L155" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M155" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P155" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>32</v>
+        <v>781</v>
       </c>
       <c r="R155" s="1" t="s">
-        <v>32</v>
+        <v>782</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>22</v>
@@ -13029,31 +13026,31 @@
         <v>1097</v>
       </c>
       <c r="J156" s="1">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="K156" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L156" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M156" s="1">
         <v>28</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>782</v>
+        <v>32</v>
       </c>
       <c r="R156" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="S156" s="1" t="s">
         <v>50</v>
@@ -13061,49 +13058,49 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>22</v>
+        <v>774</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>32</v>
+        <v>787</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="J157" s="1">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="K157" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L157" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M157" s="1">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>432</v>
+        <v>250</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>29</v>
@@ -13112,7 +13109,7 @@
         <v>32</v>
       </c>
       <c r="R157" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="S157" s="1" t="s">
         <v>50</v>
@@ -13120,25 +13117,25 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>775</v>
+        <v>230</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>775</v>
+        <v>230</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>22</v>
@@ -13147,31 +13144,31 @@
         <v>1096</v>
       </c>
       <c r="J158" s="1">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="K158" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L158" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M158" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="P158" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>32</v>
+        <v>795</v>
       </c>
       <c r="R158" s="1" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="S158" s="1" t="s">
         <v>50</v>
@@ -13179,10 +13176,10 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>230</v>
@@ -13191,13 +13188,13 @@
         <v>230</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>22</v>
@@ -13206,31 +13203,31 @@
         <v>1097</v>
       </c>
       <c r="J159" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="K159" s="1">
         <v>1</v>
       </c>
       <c r="L159" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M159" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R159" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="S159" s="1" t="s">
         <v>50</v>
@@ -13238,10 +13235,10 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>230</v>
@@ -13250,105 +13247,105 @@
         <v>230</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="J160" s="1">
-        <v>2022</v>
+        <v>1999</v>
       </c>
       <c r="K160" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L160" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="M160" s="1">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P160" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R160" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>230</v>
+        <v>1099</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>230</v>
+        <v>807</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J161" s="1">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="K161" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L161" s="1">
         <v>37</v>
       </c>
       <c r="M161" s="1">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>140</v>
+        <v>492</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P161" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R161" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="S161" s="1" t="s">
         <v>22</v>
@@ -13356,58 +13353,58 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>808</v>
+        <v>22</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J162" s="1">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="K162" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L162" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M162" s="1">
-        <v>532</v>
+        <v>756</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>492</v>
+        <v>737</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P162" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R162" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="S162" s="1" t="s">
         <v>22</v>
@@ -13415,58 +13412,58 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1100</v>
+        <v>22</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>22</v>
+        <v>807</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J163" s="1">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="K163" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L163" s="1">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="M163" s="1">
-        <v>756</v>
+        <v>124</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>738</v>
+        <v>818</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P163" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R163" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="S163" s="1" t="s">
         <v>22</v>
@@ -13474,25 +13471,25 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>818</v>
+        <v>821</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>822</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>22</v>
@@ -13501,101 +13498,101 @@
         <v>1096</v>
       </c>
       <c r="J164" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K164" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L164" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M164" s="1">
-        <v>124</v>
-      </c>
-      <c r="N164" s="1" t="s">
-        <v>819</v>
+        <v>9</v>
+      </c>
+      <c r="N164" s="1">
+        <v>2021</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P164" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q164" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="R164" s="1" t="s">
-        <v>820</v>
+      <c r="Q164" s="1">
+        <v>41</v>
+      </c>
+      <c r="R164" s="6" t="s">
+        <v>1020</v>
       </c>
       <c r="S164" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>808</v>
+        <v>71</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>823</v>
+        <v>825</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J165" s="1">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="K165" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L165" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M165" s="1">
-        <v>9</v>
-      </c>
-      <c r="N165" s="1">
-        <v>2021</v>
+        <v>114</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P165" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q165" s="1">
-        <v>41</v>
-      </c>
-      <c r="R165" s="6" t="s">
-        <v>1021</v>
+      <c r="Q165" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="S165" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>71</v>
@@ -13604,13 +13601,13 @@
         <v>71</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>22</v>
@@ -13619,137 +13616,137 @@
         <v>1096</v>
       </c>
       <c r="J166" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="K166" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L166" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M166" s="1">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P166" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R166" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>71</v>
+        <v>834</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>830</v>
+        <v>32</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="J167" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="K167" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L167" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M167" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>795</v>
+        <v>251</v>
       </c>
       <c r="P167" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>796</v>
+        <v>252</v>
       </c>
       <c r="R167" s="1" t="s">
-        <v>832</v>
+        <v>32</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1046</v>
+        <v>1079</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>32</v>
+        <v>838</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="J168" s="1">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="K168" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M168" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>251</v>
@@ -13761,54 +13758,54 @@
         <v>252</v>
       </c>
       <c r="R168" s="1" t="s">
-        <v>32</v>
+        <v>840</v>
       </c>
       <c r="S168" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>22</v>
+        <v>842</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J169" s="1">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="K169" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L169" s="1">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="M169" s="1">
-        <v>37</v>
+        <v>2590</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="O169" s="1" t="s">
         <v>251</v>
@@ -13820,54 +13817,54 @@
         <v>252</v>
       </c>
       <c r="R169" s="1" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="D170" s="1" t="s">
-        <v>835</v>
+        <v>22</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J170" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="K170" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L170" s="1">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="M170" s="1">
-        <v>2590</v>
+        <v>4955</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="O170" s="1" t="s">
         <v>251</v>
@@ -13879,54 +13876,54 @@
         <v>252</v>
       </c>
       <c r="R170" s="1" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>843</v>
+        <v>22</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>22</v>
+        <v>837</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="J171" s="1">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="K171" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L171" s="1">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="M171" s="1">
-        <v>4955</v>
+        <v>0</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>251</v>
@@ -13938,54 +13935,54 @@
         <v>252</v>
       </c>
       <c r="R171" s="1" t="s">
-        <v>850</v>
+        <v>32</v>
       </c>
       <c r="S171" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>22</v>
+        <v>854</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="J172" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="K172" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L172" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M172" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>251</v>
@@ -13997,116 +13994,116 @@
         <v>252</v>
       </c>
       <c r="R172" s="1" t="s">
-        <v>32</v>
+        <v>857</v>
       </c>
       <c r="S172" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>855</v>
+        <v>1100</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>855</v>
+        <v>1100</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J173" s="1">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="K173" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L173" s="1">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="M173" s="1">
-        <v>30</v>
+        <v>1108</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>85</v>
+        <v>654</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>251</v>
+        <v>478</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>252</v>
+        <v>479</v>
       </c>
       <c r="R173" s="1" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J174" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="K174" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L174" s="1">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="M174" s="1">
-        <v>1108</v>
+        <v>386</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>655</v>
+        <v>224</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>478</v>
+        <v>866</v>
       </c>
       <c r="P174" s="1" t="s">
         <v>29</v>
@@ -14115,7 +14112,7 @@
         <v>479</v>
       </c>
       <c r="R174" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="S174" s="1" t="s">
         <v>22</v>
@@ -14123,49 +14120,49 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J175" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="K175" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L175" s="1">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M175" s="1">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>224</v>
+        <v>654</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>867</v>
+        <v>478</v>
       </c>
       <c r="P175" s="1" t="s">
         <v>29</v>
@@ -14174,7 +14171,7 @@
         <v>479</v>
       </c>
       <c r="R175" s="1" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="S175" s="1" t="s">
         <v>22</v>
@@ -14182,58 +14179,58 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1101</v>
+        <v>874</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1101</v>
+        <v>22</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J176" s="1">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="K176" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L176" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M176" s="1">
-        <v>349</v>
+        <v>649</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>655</v>
+        <v>754</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>478</v>
+        <v>794</v>
       </c>
       <c r="P176" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>479</v>
+        <v>795</v>
       </c>
       <c r="R176" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="S176" s="1" t="s">
         <v>22</v>
@@ -14241,176 +14238,176 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>875</v>
-      </c>
       <c r="D177" s="1" t="s">
-        <v>22</v>
+        <v>874</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J177" s="1">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="K177" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L177" s="1">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M177" s="1">
-        <v>649</v>
+        <v>178</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>755</v>
+        <v>250</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P177" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R177" s="1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="S177" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>879</v>
+        <v>815</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>880</v>
+        <v>816</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>881</v>
+        <v>817</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J178" s="1">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="K178" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L178" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M178" s="1">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>250</v>
+        <v>818</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P178" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q178" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R178" s="1" t="s">
-        <v>882</v>
+        <v>819</v>
       </c>
       <c r="S178" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>816</v>
+        <v>883</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>875</v>
+        <v>1030</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>875</v>
+        <v>1030</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>817</v>
+        <v>884</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>818</v>
+        <v>885</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J179" s="1">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="K179" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L179" s="1">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="M179" s="1">
-        <v>124</v>
+        <v>2769</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>819</v>
+        <v>129</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>795</v>
+        <v>886</v>
       </c>
       <c r="P179" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>796</v>
+        <v>887</v>
       </c>
       <c r="R179" s="1" t="s">
-        <v>820</v>
+        <v>888</v>
       </c>
       <c r="S179" s="1" t="s">
         <v>22</v>
@@ -14418,58 +14415,58 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J180" s="1">
         <v>2011</v>
       </c>
       <c r="K180" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L180" s="1">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="M180" s="1">
-        <v>2769</v>
+        <v>1821</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>129</v>
+        <v>654</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>887</v>
+        <v>345</v>
       </c>
       <c r="P180" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>888</v>
+        <v>346</v>
       </c>
       <c r="R180" s="1" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="S180" s="1" t="s">
         <v>22</v>
@@ -14477,46 +14474,46 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>1083</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J181" s="1">
         <v>2011</v>
       </c>
       <c r="K181" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L181" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M181" s="1">
-        <v>1821</v>
+        <v>1277</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>655</v>
+        <v>224</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>345</v>
@@ -14528,66 +14525,66 @@
         <v>346</v>
       </c>
       <c r="R181" s="1" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="S181" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J182" s="1">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="K182" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L182" s="1">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="M182" s="1">
-        <v>1277</v>
+        <v>58</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>345</v>
+        <v>900</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>346</v>
+        <v>901</v>
       </c>
       <c r="R182" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="S182" s="1" t="s">
         <v>50</v>
@@ -14595,58 +14592,58 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1031</v>
+        <v>905</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1031</v>
+        <v>905</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>1085</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J183" s="1">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="K183" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="L183" s="1">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="M183" s="1">
-        <v>58</v>
+        <v>1621</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>212</v>
+        <v>737</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="P183" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="R183" s="1" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="S183" s="1" t="s">
         <v>50</v>
@@ -14654,58 +14651,58 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J184" s="1">
-        <v>2008</v>
+        <v>2022</v>
       </c>
       <c r="K184" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L184" s="1">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="M184" s="1">
-        <v>1621</v>
+        <v>288</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>738</v>
+        <v>212</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="P184" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="R184" s="1" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="S184" s="1" t="s">
         <v>50</v>
@@ -14713,58 +14710,58 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J185" s="1">
+        <v>2005</v>
+      </c>
+      <c r="K185" s="1">
+        <v>18</v>
+      </c>
+      <c r="L185" s="1">
+        <v>38</v>
+      </c>
+      <c r="M185" s="1">
         <v>913</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J185" s="1">
-        <v>2022</v>
-      </c>
-      <c r="K185" s="1">
-        <v>10</v>
-      </c>
-      <c r="L185" s="1">
-        <v>23</v>
-      </c>
-      <c r="M185" s="1">
-        <v>288</v>
-      </c>
       <c r="N185" s="1" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="P185" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="R185" s="1" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="S185" s="1" t="s">
         <v>50</v>
@@ -14772,84 +14769,84 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J186" s="1">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="K186" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L186" s="1">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="M186" s="1">
-        <v>913</v>
+        <v>3473</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="P186" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q186" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="R186" s="1" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="S186" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>904</v>
+        <v>925</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>1087</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>22</v>
@@ -14858,78 +14855,78 @@
         <v>1096</v>
       </c>
       <c r="J187" s="1">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="K187" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L187" s="1">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="M187" s="1">
-        <v>3473</v>
+        <v>6</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>909</v>
+        <v>61</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>910</v>
+        <v>62</v>
       </c>
       <c r="R187" s="1" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="S187" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>928</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J188" s="1">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="K188" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L188" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="M188" s="1">
-        <v>6</v>
+        <v>749</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>61</v>
@@ -14941,54 +14938,54 @@
         <v>62</v>
       </c>
       <c r="R188" s="1" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="S188" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="J189" s="1">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="K189" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L189" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="M189" s="1">
-        <v>749</v>
+        <v>16</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>61</v>
@@ -15000,66 +14997,66 @@
         <v>62</v>
       </c>
       <c r="R189" s="1" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="S189" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="J190" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="K190" s="1">
         <v>2</v>
       </c>
       <c r="L190" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M190" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>61</v>
+        <v>304</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="Q190" s="1" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="R190" s="1" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="S190" s="1" t="s">
         <v>50</v>
@@ -15067,46 +15064,46 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>944</v>
-      </c>
       <c r="D191" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J191" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="K191" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L191" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M191" s="1">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>304</v>
@@ -15118,7 +15115,7 @@
         <v>305</v>
       </c>
       <c r="R191" s="1" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="S191" s="1" t="s">
         <v>50</v>
@@ -15126,46 +15123,46 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J192" s="1">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="K192" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="L192" s="1">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="M192" s="1">
-        <v>63</v>
+        <v>1330</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>304</v>
@@ -15177,113 +15174,113 @@
         <v>305</v>
       </c>
       <c r="R192" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="S192" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>1089</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>954</v>
+        <v>958</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>959</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="J193" s="1">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="K193" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L193" s="1">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="M193" s="1">
-        <v>1330</v>
+        <v>7</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="O193" s="1" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P193" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="R193" s="1" t="s">
-        <v>955</v>
+        <v>320</v>
+      </c>
+      <c r="R193" s="7" t="s">
+        <v>1112</v>
       </c>
       <c r="S193" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>958</v>
-      </c>
       <c r="D194" s="1" t="s">
-        <v>958</v>
+        <v>22</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>960</v>
+        <v>961</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>962</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="J194" s="1">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="K194" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L194" s="1">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="M194" s="1">
-        <v>7</v>
+        <v>764</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>319</v>
@@ -15294,34 +15291,34 @@
       <c r="Q194" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="R194" s="7" t="s">
-        <v>1113</v>
+      <c r="R194" s="1" t="s">
+        <v>963</v>
       </c>
       <c r="S194" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>22</v>
+        <v>957</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>22</v>
@@ -15330,19 +15327,19 @@
         <v>1096</v>
       </c>
       <c r="J195" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="K195" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L195" s="1">
+        <v>10</v>
+      </c>
+      <c r="M195" s="1">
+        <v>24</v>
+      </c>
+      <c r="N195" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="M195" s="1">
-        <v>764</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>319</v>
@@ -15354,7 +15351,7 @@
         <v>320</v>
       </c>
       <c r="R195" s="1" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="S195" s="1" t="s">
         <v>22</v>
@@ -15362,25 +15359,25 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>22</v>
@@ -15389,19 +15386,19 @@
         <v>1097</v>
       </c>
       <c r="J196" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="K196" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L196" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M196" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>319</v>
@@ -15413,113 +15410,113 @@
         <v>320</v>
       </c>
       <c r="R196" s="1" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="S196" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>956</v>
+        <v>972</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="J197" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="K197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>319</v>
+        <v>75</v>
       </c>
       <c r="P197" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q197" s="1" t="s">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="R197" s="1" t="s">
-        <v>972</v>
+        <v>32</v>
       </c>
       <c r="S197" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="D198" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J198" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="K198" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L198" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M198" s="1">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>32</v>
+        <v>654</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>75</v>
@@ -15531,54 +15528,54 @@
         <v>77</v>
       </c>
       <c r="R198" s="1" t="s">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="S198" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>975</v>
+        <v>22</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J199" s="1">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="K199" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L199" s="1">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="M199" s="1">
-        <v>571</v>
+        <v>2085</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>655</v>
+        <v>477</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>75</v>
@@ -15590,113 +15587,113 @@
         <v>77</v>
       </c>
       <c r="R199" s="1" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="S199" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>22</v>
+        <v>987</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J200" s="1">
-        <v>1994</v>
+        <v>2012</v>
       </c>
       <c r="K200" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L200" s="1">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="M200" s="1">
-        <v>2085</v>
+        <v>12</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>477</v>
+        <v>250</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="Q200" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="R200" s="1" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="S200" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>988</v>
-      </c>
       <c r="D201" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="J201" s="1">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="K201" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L201" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M201" s="1">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>61</v>
@@ -15708,54 +15705,54 @@
         <v>62</v>
       </c>
       <c r="R201" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="S201" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>988</v>
+        <v>22</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="J202" s="1">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="K202" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="L202" s="1">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="M202" s="1">
-        <v>82</v>
+        <v>2413</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>61</v>
@@ -15767,33 +15764,33 @@
         <v>62</v>
       </c>
       <c r="R202" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="S202" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>22</v>
+        <v>987</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>22</v>
@@ -15802,19 +15799,19 @@
         <v>1096</v>
       </c>
       <c r="J203" s="1">
-        <v>2000</v>
+        <v>2021</v>
       </c>
       <c r="K203" s="1">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="L203" s="1">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="M203" s="1">
-        <v>2413</v>
+        <v>71</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>54</v>
+        <v>818</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>61</v>
@@ -15826,7 +15823,7 @@
         <v>62</v>
       </c>
       <c r="R203" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="S203" s="1" t="s">
         <v>50</v>
@@ -15834,58 +15831,58 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>986</v>
+        <v>1003</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J204" s="1">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="K204" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L204" s="1">
         <v>3</v>
       </c>
       <c r="M204" s="1">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>819</v>
+        <v>492</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>61</v>
+        <v>1008</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="Q204" s="1" t="s">
-        <v>62</v>
+        <v>1009</v>
       </c>
       <c r="R204" s="1" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="S204" s="1" t="s">
         <v>50</v>
@@ -15893,58 +15890,58 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>1006</v>
-      </c>
       <c r="D205" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="G205" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J205" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K205" s="1">
+        <v>7</v>
+      </c>
+      <c r="L205" s="1">
+        <v>12</v>
+      </c>
+      <c r="M205" s="1">
+        <v>180</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O205" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J205" s="1">
-        <v>2014</v>
-      </c>
-      <c r="K205" s="1">
-        <v>3</v>
-      </c>
-      <c r="L205" s="1">
-        <v>3</v>
-      </c>
-      <c r="M205" s="1">
-        <v>49</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="O205" s="1" t="s">
-        <v>1009</v>
       </c>
       <c r="P205" s="1" t="s">
         <v>518</v>
       </c>
       <c r="Q205" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="R205" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="S205" s="1" t="s">
         <v>50</v>
@@ -15952,119 +15949,60 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J206" s="1">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="K206" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L206" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M206" s="1">
-        <v>180</v>
+        <v>526</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>42</v>
+        <v>592</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="P206" s="1" t="s">
         <v>518</v>
       </c>
       <c r="Q206" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="R206" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="S206" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J207" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K207" s="1">
-        <v>5</v>
-      </c>
-      <c r="L207" s="1">
-        <v>5</v>
-      </c>
-      <c r="M207" s="1">
-        <v>526</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="O207" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="P207" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q207" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="R207" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="S207" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -16074,8 +16012,8 @@
     <hyperlink ref="R2" r:id="rId2" xr:uid="{932B6184-ECAD-412D-B474-D08F9C5D6A15}"/>
     <hyperlink ref="G75" r:id="rId3" xr:uid="{EAA54593-FEE0-4796-9353-6888A03999DB}"/>
     <hyperlink ref="G77" r:id="rId4" xr:uid="{F7595FB4-FEBF-49DA-945E-3A002684758B}"/>
-    <hyperlink ref="G165" r:id="rId5" xr:uid="{307F09F4-1EF3-4567-863C-9982F8959663}"/>
-    <hyperlink ref="R165" r:id="rId6" xr:uid="{A90224E6-2CBB-4D06-AF7C-B78E3DDB112C}"/>
+    <hyperlink ref="G164" r:id="rId5" xr:uid="{307F09F4-1EF3-4567-863C-9982F8959663}"/>
+    <hyperlink ref="R164" r:id="rId6" xr:uid="{A90224E6-2CBB-4D06-AF7C-B78E3DDB112C}"/>
     <hyperlink ref="F58" r:id="rId7" xr:uid="{F0FE0CC3-682A-4157-BD19-CACD46BE3160}"/>
     <hyperlink ref="G58" r:id="rId8" xr:uid="{2BC72DAB-79EF-463D-9A1B-3FC5EAED82EB}"/>
     <hyperlink ref="R58" r:id="rId9" xr:uid="{66963A55-DA17-445E-9B85-5C1C1DDAEA0C}"/>
@@ -16083,10 +16021,10 @@
     <hyperlink ref="G46" r:id="rId11" xr:uid="{AF264DD2-9EB9-48CB-BAE3-12F099DDFB13}"/>
     <hyperlink ref="G89" r:id="rId12" xr:uid="{665812DB-D1A4-4E12-8DF2-1AA6F564BD84}"/>
     <hyperlink ref="F76" r:id="rId13" xr:uid="{186161E7-D08F-4649-974F-F74B4686EA8C}"/>
-    <hyperlink ref="R194" r:id="rId14" xr:uid="{D83F1DA4-9F96-4BB1-BABA-89B06D57A9EC}"/>
-    <hyperlink ref="G194" r:id="rId15" xr:uid="{AC3EB1D5-05B8-46C4-8230-2E48E72D4927}"/>
-    <hyperlink ref="G154" r:id="rId16" xr:uid="{512C8999-CB57-4387-8C65-F2FF1B8BBD71}"/>
-    <hyperlink ref="R154" r:id="rId17" xr:uid="{837FA232-827C-431F-93AF-0169DC0E3022}"/>
+    <hyperlink ref="R193" r:id="rId14" xr:uid="{D83F1DA4-9F96-4BB1-BABA-89B06D57A9EC}"/>
+    <hyperlink ref="G193" r:id="rId15" xr:uid="{AC3EB1D5-05B8-46C4-8230-2E48E72D4927}"/>
+    <hyperlink ref="G153" r:id="rId16" xr:uid="{512C8999-CB57-4387-8C65-F2FF1B8BBD71}"/>
+    <hyperlink ref="R153" r:id="rId17" xr:uid="{837FA232-827C-431F-93AF-0169DC0E3022}"/>
     <hyperlink ref="R89" r:id="rId18" xr:uid="{1FE8E78C-637A-41EE-90E0-88C8F514F5C4}"/>
     <hyperlink ref="G83" r:id="rId19" xr:uid="{7A5F1A96-A9CF-45AD-ACA5-00AB78CA51B2}"/>
     <hyperlink ref="R83" r:id="rId20" xr:uid="{93C1D872-3011-4ACB-98DD-C05E3D6A8DF4}"/>
